--- a/sofaplayer/Serie_A/Atalanta_stats.xlsx
+++ b/sofaplayer/Serie_A/Atalanta_stats.xlsx
@@ -1391,16 +1391,16 @@
         <v>1019442</v>
       </c>
       <c r="E3" t="n">
-        <v>6.7705882352941</v>
+        <v>6.7666666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
         <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>665</v>
+        <v>685</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>1.2106</v>
       </c>
       <c r="L3" t="n">
-        <v>332.5</v>
+        <v>342.5</v>
       </c>
       <c r="M3" t="n">
         <v>12</v>
@@ -1457,10 +1457,10 @@
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.49512245</v>
+        <v>1.49558429</v>
       </c>
       <c r="AB3" t="n">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="AC3" t="n">
         <v>2</v>
@@ -1469,22 +1469,22 @@
         <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AF3" t="n">
-        <v>84.183673469388</v>
+        <v>84.23645320196999</v>
       </c>
       <c r="AG3" t="n">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AH3" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AI3" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ3" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="n">
         <v>10</v>
@@ -1502,13 +1502,13 @@
         <v>2</v>
       </c>
       <c r="AP3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
         <v>4</v>
       </c>
       <c r="AR3" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AS3" t="n">
         <v>4</v>
@@ -1532,28 +1532,28 @@
         <v>17</v>
       </c>
       <c r="AZ3" t="n">
-        <v>43.589743589744</v>
+        <v>42.5</v>
       </c>
       <c r="BA3" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BB3" t="n">
-        <v>45.054945054945</v>
+        <v>45.360824742268</v>
       </c>
       <c r="BC3" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BD3" t="n">
-        <v>43.421052631579</v>
+        <v>43.20987654321</v>
       </c>
       <c r="BE3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF3" t="n">
-        <v>53.333333333333</v>
+        <v>56.25</v>
       </c>
       <c r="BG3" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="BH3" t="n">
         <v>8</v>
@@ -1583,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>115.1</v>
+        <v>121.8</v>
       </c>
       <c r="BR3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS3" t="n">
         <v>3</v>
       </c>
       <c r="BT3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>2</v>
       </c>
       <c r="CB3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CC3" t="n">
         <v>8</v>
@@ -1667,13 +1667,13 @@
         <v>8</v>
       </c>
       <c r="CS3" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CT3" t="n">
         <v>10</v>
       </c>
       <c r="CU3" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="CV3" t="n">
         <v>7</v>
@@ -1691,10 +1691,10 @@
         <v>14</v>
       </c>
       <c r="DA3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DB3" t="n">
-        <v>66.666666666667</v>
+        <v>62.5</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="DG3" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>865651</v>
       </c>
       <c r="E4" t="n">
-        <v>6.9333333333333</v>
+        <v>6.8</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>1.6158</v>
       </c>
       <c r="L4" t="n">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="M4" t="n">
         <v>10</v>
@@ -1813,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.54418345</v>
+        <v>0.55363463</v>
       </c>
       <c r="AB4" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -1825,22 +1825,22 @@
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AF4" t="n">
-        <v>83.050847457627</v>
+        <v>83.098591549296</v>
       </c>
       <c r="AG4" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
         <v>4</v>
@@ -1852,7 +1852,7 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>38.888888888889</v>
+        <v>35</v>
       </c>
       <c r="AO4" t="n">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>1</v>
       </c>
       <c r="AR4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -1891,32 +1891,32 @@
         <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>30.769230769231</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BC4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD4" t="n">
         <v>25</v>
       </c>
       <c r="BE4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>50</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>37</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI4" t="n">
         <v>2</v>
       </c>
-      <c r="BF4" t="n">
-        <v>40</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>31</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>1</v>
-      </c>
       <c r="BJ4" t="n">
         <v>0</v>
       </c>
@@ -1939,16 +1939,16 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>20.8</v>
+        <v>27.2</v>
       </c>
       <c r="BR4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS4" t="n">
         <v>2</v>
       </c>
       <c r="BT4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>3</v>
       </c>
       <c r="CB4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC4" t="n">
         <v>5</v>
@@ -2023,13 +2023,13 @@
         <v>6</v>
       </c>
       <c r="CS4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CT4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CU4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="CV4" t="n">
         <v>3</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="DG4" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>839156</v>
       </c>
       <c r="E6" t="n">
-        <v>6.81</v>
+        <v>6.8</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>886</v>
+        <v>976</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -2477,22 +2477,22 @@
         <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>7.4031</v>
+        <v>7.8175</v>
       </c>
       <c r="L6" t="n">
-        <v>126.57142857143</v>
+        <v>139.42857142857</v>
       </c>
       <c r="M6" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P6" t="n">
-        <v>13.207547169811</v>
+        <v>12.5</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -2525,10 +2525,10 @@
         <v>4</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.24269252</v>
+        <v>1.25582722</v>
       </c>
       <c r="AB6" t="n">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="AC6" t="n">
         <v>3</v>
@@ -2537,22 +2537,22 @@
         <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="AF6" t="n">
-        <v>73.279352226721</v>
+        <v>73.584905660377</v>
       </c>
       <c r="AG6" t="n">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="AH6" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AI6" t="n">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="AJ6" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AK6" t="n">
         <v>6</v>
@@ -2570,13 +2570,13 @@
         <v>2</v>
       </c>
       <c r="AP6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ6" t="n">
         <v>15</v>
       </c>
       <c r="AR6" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AS6" t="n">
         <v>3</v>
@@ -2597,40 +2597,40 @@
         <v>0</v>
       </c>
       <c r="AY6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ6" t="n">
-        <v>46.153846153846</v>
+        <v>53.333333333333</v>
       </c>
       <c r="BA6" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="BB6" t="n">
-        <v>48.12030075188</v>
+        <v>48.965517241379</v>
       </c>
       <c r="BC6" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="BD6" t="n">
-        <v>50</v>
+        <v>51.428571428571</v>
       </c>
       <c r="BE6" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BF6" t="n">
-        <v>46.478873239437</v>
+        <v>46.666666666667</v>
       </c>
       <c r="BG6" t="n">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="BH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>22</v>
+      </c>
+      <c r="BJ6" t="n">
         <v>16</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>21</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>15</v>
       </c>
       <c r="BK6" t="n">
         <v>2</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="BN6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO6" t="n">
         <v>9</v>
@@ -2651,22 +2651,22 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>136.2</v>
+        <v>142.8</v>
       </c>
       <c r="BR6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS6" t="n">
         <v>11</v>
       </c>
       <c r="BT6" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -2678,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="BZ6" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="CA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="CB6" t="n">
         <v>12</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>10</v>
       </c>
       <c r="CC6" t="n">
         <v>10</v>
@@ -2735,16 +2735,16 @@
         <v>13</v>
       </c>
       <c r="CS6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CT6" t="n">
         <v>3</v>
       </c>
       <c r="CU6" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="CV6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>4</v>
       </c>
       <c r="DB6" t="n">
-        <v>80</v>
+        <v>57.142857142857</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="DG6" t="n">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2815,40 +2815,40 @@
         <v>984184</v>
       </c>
       <c r="E7" t="n">
-        <v>6.99</v>
+        <v>7.0142857142857</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>1082</v>
+        <v>1152</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>1.8771</v>
+        <v>2.0305</v>
       </c>
       <c r="L7" t="n">
-        <v>1082</v>
+        <v>576</v>
       </c>
       <c r="M7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
         <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>4.3478260869565</v>
+        <v>7.6923076923077</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y7" t="n">
         <v>1</v>
@@ -2881,10 +2881,10 @@
         <v>2</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.56637759</v>
+        <v>2.57431599</v>
       </c>
       <c r="AB7" t="n">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="AC7" t="n">
         <v>6</v>
@@ -2893,28 +2893,28 @@
         <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="AF7" t="n">
-        <v>75.862068965517</v>
+        <v>75.641025641026</v>
       </c>
       <c r="AG7" t="n">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="AH7" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AI7" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AJ7" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL7" t="n">
-        <v>45.098039215686</v>
+        <v>45.283018867925</v>
       </c>
       <c r="AM7" t="n">
         <v>16</v>
@@ -2932,16 +2932,16 @@
         <v>4</v>
       </c>
       <c r="AR7" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AS7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT7" t="n">
         <v>18</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>20</v>
       </c>
       <c r="AZ7" t="n">
-        <v>50</v>
+        <v>48.780487804878</v>
       </c>
       <c r="BA7" t="n">
         <v>77</v>
       </c>
       <c r="BB7" t="n">
-        <v>57.037037037037</v>
+        <v>55.797101449275</v>
       </c>
       <c r="BC7" t="n">
         <v>67</v>
       </c>
       <c r="BD7" t="n">
-        <v>58.260869565217</v>
+        <v>56.779661016949</v>
       </c>
       <c r="BE7" t="n">
         <v>10</v>
@@ -2977,10 +2977,10 @@
         <v>50</v>
       </c>
       <c r="BG7" t="n">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="BH7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BI7" t="n">
         <v>31</v>
@@ -3007,22 +3007,22 @@
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>139.8</v>
+        <v>147.3</v>
       </c>
       <c r="BR7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT7" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BW7" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>9</v>
       </c>
       <c r="CA7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="CB7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CC7" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="CD7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CE7" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>21</v>
       </c>
       <c r="CS7" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CT7" t="n">
         <v>78</v>
       </c>
       <c r="CU7" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="CV7" t="n">
         <v>10</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="DA7" t="n">
         <v>14</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="DG7" t="n">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3171,52 +3171,52 @@
         <v>946888</v>
       </c>
       <c r="E8" t="n">
-        <v>6.875</v>
+        <v>6.9095238095238</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" t="n">
-        <v>1497</v>
+        <v>1587</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2536</v>
+        <v>3.042</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1587</v>
       </c>
       <c r="M8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
         <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -3237,40 +3237,40 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.08909978</v>
+        <v>1.16742248</v>
       </c>
       <c r="AB8" t="n">
-        <v>1198</v>
+        <v>1248</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
-        <v>830</v>
+        <v>868</v>
       </c>
       <c r="AF8" t="n">
-        <v>88.675213675214</v>
+        <v>88.93442622950801</v>
       </c>
       <c r="AG8" t="n">
-        <v>936</v>
+        <v>976</v>
       </c>
       <c r="AH8" t="n">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="AI8" t="n">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="AJ8" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="AK8" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL8" t="n">
-        <v>68.83116883116899</v>
+        <v>69.512195121951</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -3282,19 +3282,19 @@
         <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AQ8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR8" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AS8" t="n">
         <v>15</v>
       </c>
       <c r="AT8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AU8" t="n">
         <v>11</v>
@@ -3312,34 +3312,34 @@
         <v>8</v>
       </c>
       <c r="AZ8" t="n">
-        <v>53.333333333333</v>
+        <v>50</v>
       </c>
       <c r="BA8" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="BB8" t="n">
-        <v>50</v>
+        <v>49.72972972973</v>
       </c>
       <c r="BC8" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BD8" t="n">
-        <v>52.985074626866</v>
+        <v>52.898550724638</v>
       </c>
       <c r="BE8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BF8" t="n">
-        <v>40.909090909091</v>
+        <v>40.425531914894</v>
       </c>
       <c r="BG8" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="BH8" t="n">
         <v>25</v>
       </c>
       <c r="BI8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="BN8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO8" t="n">
         <v>13</v>
@@ -3363,16 +3363,16 @@
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>137.5</v>
+        <v>145.1</v>
       </c>
       <c r="BR8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         <v>8</v>
       </c>
       <c r="BW8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX8" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="BZ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CA8" t="n">
         <v>13</v>
       </c>
       <c r="CB8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CC8" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="CD8" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3444,19 +3444,19 @@
         <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CS8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CT8" t="n">
         <v>9</v>
       </c>
       <c r="CU8" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="CV8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CW8" t="n">
         <v>0</v>
@@ -3468,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="DA8" t="n">
         <v>22</v>
       </c>
       <c r="DB8" t="n">
-        <v>53.658536585366</v>
+        <v>52.380952380952</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,16 +3486,16 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="DG8" t="n">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
       </c>
       <c r="DI8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DJ8" t="n">
         <v>2171291</v>
@@ -3883,16 +3883,16 @@
         <v>980624</v>
       </c>
       <c r="E10" t="n">
-        <v>6.7352941176471</v>
+        <v>6.7333333333333</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>648</v>
+        <v>693</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3901,13 +3901,13 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1.5184</v>
+        <v>1.5585</v>
       </c>
       <c r="L10" t="n">
-        <v>648</v>
+        <v>693</v>
       </c>
       <c r="M10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N10" t="n">
         <v>3</v>
@@ -3916,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>7.6923076923077</v>
+        <v>7.1428571428571</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -3949,46 +3949,46 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.50626484</v>
+        <v>1.60518904</v>
       </c>
       <c r="AB10" t="n">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="AC10" t="n">
         <v>2</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="AF10" t="n">
-        <v>83.024691358025</v>
+        <v>83.529411764706</v>
       </c>
       <c r="AG10" t="n">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="AH10" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AI10" t="n">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="AJ10" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AL10" t="n">
-        <v>81.578947368421</v>
+        <v>80.487804878049</v>
       </c>
       <c r="AM10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN10" t="n">
-        <v>26.829268292683</v>
+        <v>28.571428571429</v>
       </c>
       <c r="AO10" t="n">
         <v>4</v>
@@ -4000,7 +4000,7 @@
         <v>6</v>
       </c>
       <c r="AR10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AS10" t="n">
         <v>6</v>
@@ -4009,7 +4009,7 @@
         <v>6</v>
       </c>
       <c r="AU10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV10" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>10</v>
       </c>
       <c r="AZ10" t="n">
-        <v>47.619047619048</v>
+        <v>45.454545454545</v>
       </c>
       <c r="BA10" t="n">
         <v>26</v>
       </c>
       <c r="BB10" t="n">
-        <v>29.885057471264</v>
+        <v>29.545454545455</v>
       </c>
       <c r="BC10" t="n">
         <v>22</v>
       </c>
       <c r="BD10" t="n">
-        <v>34.375</v>
+        <v>33.846153846154</v>
       </c>
       <c r="BE10" t="n">
         <v>4</v>
@@ -4045,7 +4045,7 @@
         <v>17.391304347826</v>
       </c>
       <c r="BG10" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="BH10" t="n">
         <v>12</v>
@@ -4075,16 +4075,16 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>114.5</v>
+        <v>121.2</v>
       </c>
       <c r="BR10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS10" t="n">
         <v>2</v>
       </c>
       <c r="BT10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4105,16 +4105,16 @@
         <v>7</v>
       </c>
       <c r="CA10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CB10" t="n">
         <v>15</v>
       </c>
       <c r="CC10" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="CD10" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4156,16 +4156,16 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CS10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CT10" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="CU10" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CV10" t="n">
         <v>19</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="DA10" t="n">
         <v>3</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="DG10" t="n">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>826185</v>
       </c>
       <c r="E12" t="n">
-        <v>6.7142857142857</v>
+        <v>6.72</v>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" t="n">
         <v>9</v>
       </c>
       <c r="H12" t="n">
-        <v>994</v>
+        <v>1007</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4661,10 +4661,10 @@
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.38787557</v>
+        <v>1.39411515</v>
       </c>
       <c r="AB12" t="n">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="AC12" t="n">
         <v>1</v>
@@ -4673,28 +4673,28 @@
         <v>17</v>
       </c>
       <c r="AE12" t="n">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AF12" t="n">
-        <v>89.130434782609</v>
+        <v>88.8</v>
       </c>
       <c r="AG12" t="n">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="AH12" t="n">
         <v>150</v>
       </c>
       <c r="AI12" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AJ12" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL12" t="n">
-        <v>45.833333333333</v>
+        <v>48</v>
       </c>
       <c r="AM12" t="n">
         <v>14</v>
@@ -4712,13 +4712,13 @@
         <v>4</v>
       </c>
       <c r="AR12" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU12" t="n">
         <v>5</v>
@@ -4739,16 +4739,16 @@
         <v>71.428571428571</v>
       </c>
       <c r="BA12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BB12" t="n">
-        <v>58.181818181818</v>
+        <v>58.928571428571</v>
       </c>
       <c r="BC12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD12" t="n">
-        <v>73.529411764706</v>
+        <v>74.28571428571399</v>
       </c>
       <c r="BE12" t="n">
         <v>7</v>
@@ -4757,13 +4757,13 @@
         <v>33.333333333333</v>
       </c>
       <c r="BG12" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BH12" t="n">
         <v>1</v>
       </c>
       <c r="BI12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ12" t="n">
         <v>2</v>
@@ -4787,16 +4787,16 @@
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>94</v>
+        <v>100.8</v>
       </c>
       <c r="BR12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS12" t="n">
         <v>1</v>
       </c>
       <c r="BT12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="DA12" t="n">
         <v>5</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="DG12" t="n">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>132318</v>
       </c>
       <c r="E13" t="n">
-        <v>6.8380952380952</v>
+        <v>6.8409090909091</v>
       </c>
       <c r="F13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" t="n">
-        <v>1574</v>
+        <v>1657</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>1.0871</v>
       </c>
       <c r="L13" t="n">
-        <v>1574</v>
+        <v>1657</v>
       </c>
       <c r="M13" t="n">
         <v>23</v>
@@ -5017,64 +5017,64 @@
         <v>2</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.49847861</v>
+        <v>2.53492941</v>
       </c>
       <c r="AB13" t="n">
-        <v>1076</v>
+        <v>1136</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
-        <v>578</v>
+        <v>620</v>
       </c>
       <c r="AF13" t="n">
-        <v>84.626647144949</v>
+        <v>85.048010973937</v>
       </c>
       <c r="AG13" t="n">
-        <v>683</v>
+        <v>729</v>
       </c>
       <c r="AH13" t="n">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="AI13" t="n">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="AJ13" t="n">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="AK13" t="n">
         <v>19</v>
       </c>
       <c r="AL13" t="n">
-        <v>37.254901960784</v>
+        <v>36.538461538462</v>
       </c>
       <c r="AM13" t="n">
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>23.529411764706</v>
+        <v>22.857142857143</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP13" t="n">
         <v>13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR13" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AS13" t="n">
         <v>6</v>
       </c>
       <c r="AT13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU13" t="n">
         <v>10</v>
@@ -5092,19 +5092,19 @@
         <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>46.875</v>
+        <v>45.454545454545</v>
       </c>
       <c r="BA13" t="n">
         <v>41</v>
       </c>
       <c r="BB13" t="n">
-        <v>45.555555555556</v>
+        <v>45.054945054945</v>
       </c>
       <c r="BC13" t="n">
         <v>34</v>
       </c>
       <c r="BD13" t="n">
-        <v>46.575342465753</v>
+        <v>45.945945945946</v>
       </c>
       <c r="BE13" t="n">
         <v>7</v>
@@ -5113,7 +5113,7 @@
         <v>41.176470588235</v>
       </c>
       <c r="BG13" t="n">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="BH13" t="n">
         <v>8</v>
@@ -5143,16 +5143,16 @@
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>143.6</v>
+        <v>150.5</v>
       </c>
       <c r="BR13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS13" t="n">
         <v>3</v>
       </c>
       <c r="BT13" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5179,7 +5179,7 @@
         <v>9</v>
       </c>
       <c r="CC13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="CD13" t="n">
         <v>18</v>
@@ -5224,16 +5224,16 @@
         <v>0</v>
       </c>
       <c r="CR13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CS13" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CT13" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="CU13" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CV13" t="n">
         <v>10</v>
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DA13" t="n">
         <v>8</v>
@@ -5266,16 +5266,16 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="DG13" t="n">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
       </c>
       <c r="DI13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ13" t="n">
         <v>2191909</v>
@@ -5307,16 +5307,16 @@
         <v>100389</v>
       </c>
       <c r="E14" t="n">
-        <v>7.09</v>
+        <v>7.0761904761905</v>
       </c>
       <c r="F14" t="n">
+        <v>21</v>
+      </c>
+      <c r="G14" t="n">
         <v>20</v>
       </c>
-      <c r="G14" t="n">
-        <v>19</v>
-      </c>
       <c r="H14" t="n">
-        <v>1617</v>
+        <v>1707</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -5325,13 +5325,13 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7146</v>
+        <v>0.7206</v>
       </c>
       <c r="L14" t="n">
-        <v>1617</v>
+        <v>1707</v>
       </c>
       <c r="M14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N14" t="n">
         <v>4</v>
@@ -5340,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>9.090909090909101</v>
+        <v>8.3333333333333</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -5373,10 +5373,10 @@
         <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.94050358</v>
+        <v>0.95472088</v>
       </c>
       <c r="AB14" t="n">
-        <v>1305</v>
+        <v>1364</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -5385,28 +5385,28 @@
         <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>949</v>
+        <v>993</v>
       </c>
       <c r="AF14" t="n">
-        <v>86.194368755677</v>
+        <v>86.27280625543</v>
       </c>
       <c r="AG14" t="n">
-        <v>1101</v>
+        <v>1151</v>
       </c>
       <c r="AH14" t="n">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="AI14" t="n">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="AJ14" t="n">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="AK14" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AL14" t="n">
-        <v>52.586206896552</v>
+        <v>53.389830508475</v>
       </c>
       <c r="AM14" t="n">
         <v>1</v>
@@ -5418,19 +5418,19 @@
         <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ14" t="n">
         <v>5</v>
       </c>
       <c r="AR14" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AS14" t="n">
         <v>13</v>
       </c>
       <c r="AT14" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -5451,28 +5451,28 @@
         <v>40</v>
       </c>
       <c r="BA14" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BB14" t="n">
-        <v>54.014598540146</v>
+        <v>53.521126760563</v>
       </c>
       <c r="BC14" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BD14" t="n">
-        <v>60.204081632653</v>
+        <v>58.823529411765</v>
       </c>
       <c r="BE14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BF14" t="n">
-        <v>38.461538461538</v>
+        <v>40</v>
       </c>
       <c r="BG14" t="n">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="BH14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BI14" t="n">
         <v>8</v>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BO14" t="n">
         <v>14</v>
@@ -5499,22 +5499,22 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>141.8</v>
+        <v>148.6</v>
       </c>
       <c r="BR14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS14" t="n">
         <v>2</v>
       </c>
       <c r="BT14" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
@@ -5529,13 +5529,13 @@
         <v>4</v>
       </c>
       <c r="CA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC14" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CD14" t="n">
         <v>33</v>
@@ -5589,7 +5589,7 @@
         <v>7</v>
       </c>
       <c r="CU14" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="CV14" t="n">
         <v>24</v>
@@ -5604,13 +5604,13 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="DA14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="DB14" t="n">
-        <v>52</v>
+        <v>52.941176470588</v>
       </c>
       <c r="DC14" t="n">
         <v>1</v>
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="DG14" t="n">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -5663,16 +5663,16 @@
         <v>1012177</v>
       </c>
       <c r="E15" t="n">
-        <v>7.0571428571429</v>
+        <v>7.06</v>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15" t="n">
-        <v>918</v>
+        <v>1008</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5681,13 +5681,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2862</v>
+        <v>0.2917</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
@@ -5726,52 +5726,52 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.24972282</v>
+        <v>2.40474482</v>
       </c>
       <c r="AB15" t="n">
-        <v>656</v>
+        <v>716</v>
       </c>
       <c r="AC15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="AF15" t="n">
-        <v>83.756345177665</v>
+        <v>84.474885844749</v>
       </c>
       <c r="AG15" t="n">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="AH15" t="n">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="AI15" t="n">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="AJ15" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AL15" t="n">
-        <v>45.454545454545</v>
+        <v>47.368421052632</v>
       </c>
       <c r="AM15" t="n">
         <v>20</v>
       </c>
       <c r="AN15" t="n">
-        <v>28.985507246377</v>
+        <v>28.169014084507</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP15" t="n">
         <v>24</v>
@@ -5780,16 +5780,16 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AS15" t="n">
         <v>9</v>
       </c>
       <c r="AT15" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AU15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -5801,52 +5801,52 @@
         <v>0</v>
       </c>
       <c r="AY15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ15" t="n">
-        <v>83.333333333333</v>
+        <v>85.71428571428601</v>
       </c>
       <c r="BA15" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BB15" t="n">
-        <v>60</v>
+        <v>59.322033898305</v>
       </c>
       <c r="BC15" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BD15" t="n">
-        <v>64.583333333333</v>
+        <v>62.745098039216</v>
       </c>
       <c r="BE15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>159</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK15" t="n">
         <v>2</v>
       </c>
-      <c r="BF15" t="n">
-        <v>28.571428571429</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>150</v>
-      </c>
-      <c r="BH15" t="n">
+      <c r="BL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN15" t="n">
         <v>6</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>5</v>
       </c>
       <c r="BO15" t="n">
         <v>5</v>
@@ -5855,16 +5855,16 @@
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>98.8</v>
+        <v>105.9</v>
       </c>
       <c r="BR15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT15" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5885,16 +5885,16 @@
         <v>4</v>
       </c>
       <c r="CA15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CB15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC15" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="CD15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -5936,16 +5936,16 @@
         <v>0</v>
       </c>
       <c r="CR15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="CS15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CT15" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="CU15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CV15" t="n">
         <v>5</v>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="DA15" t="n">
         <v>12</v>
@@ -5978,10 +5978,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="DG15" t="n">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6019,16 +6019,16 @@
         <v>973437</v>
       </c>
       <c r="E16" t="n">
-        <v>6.6916666666667</v>
+        <v>6.7</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" t="n">
         <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>795</v>
+        <v>840</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -6040,7 +6040,7 @@
         <v>0.3877</v>
       </c>
       <c r="L16" t="n">
-        <v>795</v>
+        <v>840</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
@@ -6085,10 +6085,10 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.1373173</v>
+        <v>0.13792177</v>
       </c>
       <c r="AB16" t="n">
-        <v>611</v>
+        <v>649</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -6097,28 +6097,28 @@
         <v>3</v>
       </c>
       <c r="AE16" t="n">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="AF16" t="n">
-        <v>91.935483870968</v>
+        <v>92.015209125475</v>
       </c>
       <c r="AG16" t="n">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="AH16" t="n">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="AI16" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AJ16" t="n">
         <v>77</v>
       </c>
       <c r="AK16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
-        <v>58.333333333333</v>
+        <v>57.142857142857</v>
       </c>
       <c r="AM16" t="n">
         <v>1</v>
@@ -6142,7 +6142,7 @@
         <v>4</v>
       </c>
       <c r="AT16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU16" t="n">
         <v>2</v>
@@ -6166,13 +6166,13 @@
         <v>31</v>
       </c>
       <c r="BB16" t="n">
-        <v>44.285714285714</v>
+        <v>41.891891891892</v>
       </c>
       <c r="BC16" t="n">
         <v>21</v>
       </c>
       <c r="BD16" t="n">
-        <v>48.837209302326</v>
+        <v>44.68085106383</v>
       </c>
       <c r="BE16" t="n">
         <v>10</v>
@@ -6181,10 +6181,10 @@
         <v>37.037037037037</v>
       </c>
       <c r="BG16" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="BH16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BI16" t="n">
         <v>3</v>
@@ -6211,16 +6211,16 @@
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>80.3</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="BR16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS16" t="n">
         <v>1</v>
       </c>
       <c r="BT16" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6244,13 +6244,13 @@
         <v>3</v>
       </c>
       <c r="CB16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CC16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CD16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>2</v>
       </c>
       <c r="CU16" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="CV16" t="n">
         <v>17</v>
@@ -6316,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="DA16" t="n">
         <v>11</v>
@@ -6334,16 +6334,16 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="DG16" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="DH16" t="n">
         <v>1</v>
       </c>
       <c r="DI16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DJ16" t="n">
         <v>2171287</v>
@@ -6375,16 +6375,16 @@
         <v>1012176</v>
       </c>
       <c r="E17" t="n">
-        <v>7.3090909090909</v>
+        <v>7.2583333333333</v>
       </c>
       <c r="F17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G17" t="n">
         <v>11</v>
       </c>
-      <c r="G17" t="n">
-        <v>10</v>
-      </c>
       <c r="H17" t="n">
-        <v>823</v>
+        <v>868</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -6393,22 +6393,22 @@
         <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>1.5618</v>
+        <v>1.6396</v>
       </c>
       <c r="L17" t="n">
-        <v>411.5</v>
+        <v>434</v>
       </c>
       <c r="M17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>25</v>
+        <v>22.222222222222</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -6441,10 +6441,10 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.43477442</v>
+        <v>0.43969672</v>
       </c>
       <c r="AB17" t="n">
-        <v>663</v>
+        <v>721</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -6453,28 +6453,28 @@
         <v>6</v>
       </c>
       <c r="AE17" t="n">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="AF17" t="n">
-        <v>87.5</v>
+        <v>87.751371115174</v>
       </c>
       <c r="AG17" t="n">
-        <v>496</v>
+        <v>547</v>
       </c>
       <c r="AH17" t="n">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="AI17" t="n">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="AJ17" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AK17" t="n">
         <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>45.945945945946</v>
+        <v>42.5</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
@@ -6492,13 +6492,13 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT17" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AU17" t="n">
         <v>4</v>
@@ -6519,16 +6519,16 @@
         <v>45.454545454545</v>
       </c>
       <c r="BA17" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BB17" t="n">
-        <v>55.31914893617</v>
+        <v>54.639175257732</v>
       </c>
       <c r="BC17" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BD17" t="n">
-        <v>57.142857142857</v>
+        <v>55.932203389831</v>
       </c>
       <c r="BE17" t="n">
         <v>20</v>
@@ -6537,19 +6537,19 @@
         <v>52.631578947368</v>
       </c>
       <c r="BG17" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="BH17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BI17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ17" t="n">
         <v>2</v>
       </c>
       <c r="BK17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL17" t="n">
         <v>0</v>
@@ -6567,16 +6567,16 @@
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>80.40000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="BR17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS17" t="n">
         <v>2</v>
       </c>
       <c r="BT17" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="BZ17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CA17" t="n">
         <v>0</v>
@@ -6603,7 +6603,7 @@
         <v>2</v>
       </c>
       <c r="CC17" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="CD17" t="n">
         <v>12</v>
@@ -6657,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="CU17" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="CV17" t="n">
         <v>18</v>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="DA17" t="n">
         <v>10</v>
@@ -6690,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="DG17" t="n">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="DH17" t="n">
         <v>3</v>
@@ -6731,16 +6731,16 @@
         <v>142148</v>
       </c>
       <c r="E18" t="n">
-        <v>6.7857142857143</v>
+        <v>6.825</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G18" t="n">
         <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6797,10 +6797,10 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.08219234</v>
+        <v>0.08428787</v>
       </c>
       <c r="AB18" t="n">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -6809,28 +6809,28 @@
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="AF18" t="n">
-        <v>89.18918918918899</v>
+        <v>90.15748031496101</v>
       </c>
       <c r="AG18" t="n">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="AH18" t="n">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="AI18" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AK18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL18" t="n">
-        <v>42.857142857143</v>
+        <v>54.545454545455</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
@@ -6842,19 +6842,19 @@
         <v>2</v>
       </c>
       <c r="AP18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ18" t="n">
         <v>1</v>
       </c>
       <c r="AR18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AS18" t="n">
         <v>3</v>
       </c>
       <c r="AT18" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AU18" t="n">
         <v>1</v>
@@ -6875,25 +6875,25 @@
         <v>0</v>
       </c>
       <c r="BA18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB18" t="n">
-        <v>50</v>
+        <v>51.351351351351</v>
       </c>
       <c r="BC18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD18" t="n">
-        <v>54.166666666667</v>
+        <v>57.692307692308</v>
       </c>
       <c r="BE18" t="n">
         <v>4</v>
       </c>
       <c r="BF18" t="n">
-        <v>40</v>
+        <v>36.363636363636</v>
       </c>
       <c r="BG18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BH18" t="n">
         <v>8</v>
@@ -6923,16 +6923,16 @@
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>47.5</v>
+        <v>54.6</v>
       </c>
       <c r="BR18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS18" t="n">
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6959,10 +6959,10 @@
         <v>0</v>
       </c>
       <c r="CC18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CD18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -7013,10 +7013,10 @@
         <v>0</v>
       </c>
       <c r="CU18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CV18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7028,10 +7028,10 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="DA18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DB18" t="n">
         <v>50</v>
@@ -7046,10 +7046,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="DG18" t="n">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="DH18" t="n">
         <v>1</v>
@@ -7443,16 +7443,16 @@
         <v>151003</v>
       </c>
       <c r="E20" t="n">
-        <v>6.9</v>
+        <v>6.9181818181818</v>
       </c>
       <c r="F20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" t="n">
-        <v>1648</v>
+        <v>1738</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -7509,10 +7509,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.62544004</v>
+        <v>0.62857155</v>
       </c>
       <c r="AB20" t="n">
-        <v>1277</v>
+        <v>1347</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -7521,28 +7521,28 @@
         <v>4</v>
       </c>
       <c r="AE20" t="n">
-        <v>889</v>
+        <v>950</v>
       </c>
       <c r="AF20" t="n">
-        <v>88.019801980198</v>
+        <v>88.536812674744</v>
       </c>
       <c r="AG20" t="n">
-        <v>1010</v>
+        <v>1073</v>
       </c>
       <c r="AH20" t="n">
-        <v>612</v>
+        <v>666</v>
       </c>
       <c r="AI20" t="n">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="AJ20" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AL20" t="n">
-        <v>54.430379746835</v>
+        <v>55.952380952381</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -7554,19 +7554,19 @@
         <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AS20" t="n">
         <v>13</v>
       </c>
       <c r="AT20" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AU20" t="n">
         <v>2</v>
@@ -7587,16 +7587,16 @@
         <v>75</v>
       </c>
       <c r="BA20" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BB20" t="n">
-        <v>57.407407407407</v>
+        <v>56.969696969697</v>
       </c>
       <c r="BC20" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BD20" t="n">
-        <v>56.451612903226</v>
+        <v>55.384615384615</v>
       </c>
       <c r="BE20" t="n">
         <v>58</v>
@@ -7605,10 +7605,10 @@
         <v>58</v>
       </c>
       <c r="BG20" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="BH20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI20" t="n">
         <v>4</v>
@@ -7617,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="BK20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL20" t="n">
         <v>0</v>
@@ -7626,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="BN20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BO20" t="n">
         <v>16</v>
@@ -7635,16 +7635,16 @@
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>144.9</v>
+        <v>152.2</v>
       </c>
       <c r="BR20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS20" t="n">
         <v>0</v>
       </c>
       <c r="BT20" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7671,10 +7671,10 @@
         <v>3</v>
       </c>
       <c r="CC20" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="CD20" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7725,7 +7725,7 @@
         <v>2</v>
       </c>
       <c r="CU20" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="CV20" t="n">
         <v>42</v>
@@ -7740,13 +7740,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="DA20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DB20" t="n">
-        <v>57.142857142857</v>
+        <v>58.620689655172</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7758,16 +7758,16 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>659</v>
+        <v>713</v>
       </c>
       <c r="DG20" t="n">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="DH20" t="n">
         <v>7</v>
       </c>
       <c r="DI20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="DJ20" t="n">
         <v>2171285</v>
@@ -7799,16 +7799,16 @@
         <v>1634980</v>
       </c>
       <c r="E21" t="n">
-        <v>6.6142857142857</v>
+        <v>6.6066666666667</v>
       </c>
       <c r="F21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" t="n">
-        <v>983</v>
+        <v>1008</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -7817,13 +7817,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1.4903</v>
+        <v>1.5951</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N21" t="n">
         <v>2</v>
@@ -7865,10 +7865,10 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.5861083</v>
+        <v>0.58635579</v>
       </c>
       <c r="AB21" t="n">
-        <v>695</v>
+        <v>718</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -7877,19 +7877,19 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="AF21" t="n">
-        <v>89.349112426036</v>
+        <v>89.52380952381</v>
       </c>
       <c r="AG21" t="n">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="AH21" t="n">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="AI21" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AJ21" t="n">
         <v>63</v>
@@ -7907,19 +7907,19 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ21" t="n">
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT21" t="n">
         <v>39</v>
@@ -7943,28 +7943,28 @@
         <v>50</v>
       </c>
       <c r="BA21" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BB21" t="n">
-        <v>62.71186440678</v>
+        <v>62.295081967213</v>
       </c>
       <c r="BC21" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BD21" t="n">
-        <v>67.123287671233</v>
+        <v>65.789473684211</v>
       </c>
       <c r="BE21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BF21" t="n">
-        <v>55.555555555556</v>
+        <v>56.521739130435</v>
       </c>
       <c r="BG21" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BH21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BI21" t="n">
         <v>20</v>
@@ -7973,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="BK21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL21" t="n">
         <v>1</v>
@@ -7991,22 +7991,22 @@
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>92.59999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="BR21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS21" t="n">
         <v>0</v>
       </c>
       <c r="BT21" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BU21" t="n">
         <v>1</v>
       </c>
       <c r="BV21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW21" t="n">
         <v>0</v>
@@ -8018,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="BZ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CA21" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>1</v>
       </c>
       <c r="CU21" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="CV21" t="n">
         <v>20</v>
@@ -8099,10 +8099,10 @@
         <v>27</v>
       </c>
       <c r="DA21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="DB21" t="n">
-        <v>53.846153846154</v>
+        <v>55.555555555556</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8114,10 +8114,10 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="DG21" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="DH21" t="n">
         <v>2</v>
@@ -8155,16 +8155,16 @@
         <v>865646</v>
       </c>
       <c r="E22" t="n">
-        <v>7.35</v>
+        <v>7.448</v>
       </c>
       <c r="F22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H22" t="n">
-        <v>2160</v>
+        <v>2250</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
@@ -8219,10 +8219,10 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.03290992</v>
+        <v>0.03647401</v>
       </c>
       <c r="AB22" t="n">
-        <v>972</v>
+        <v>1035</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -8231,28 +8231,28 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="AF22" t="n">
-        <v>66.981132075472</v>
+        <v>67.680608365019</v>
       </c>
       <c r="AG22" t="n">
-        <v>742</v>
+        <v>789</v>
       </c>
       <c r="AH22" t="n">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="AI22" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK22" t="n">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="AL22" t="n">
-        <v>40.198511166253</v>
+        <v>40.801886792453</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -8270,13 +8270,13 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="AS22" t="n">
         <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>100</v>
       </c>
       <c r="BG22" t="n">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="BH22" t="n">
         <v>1</v>
@@ -8333,10 +8333,10 @@
         <v>0</v>
       </c>
       <c r="BM22" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="BN22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BO22" t="n">
         <v>21</v>
@@ -8345,16 +8345,16 @@
         <v>2</v>
       </c>
       <c r="BQ22" t="n">
-        <v>176.4</v>
+        <v>186.2</v>
       </c>
       <c r="BR22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BS22" t="n">
         <v>0</v>
       </c>
       <c r="BT22" t="n">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -8381,10 +8381,10 @@
         <v>0</v>
       </c>
       <c r="CC22" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="CD22" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="CE22" t="n">
         <v>0</v>
@@ -8396,10 +8396,10 @@
         <v>3</v>
       </c>
       <c r="CH22" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="CI22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CJ22" t="n">
         <v>17</v>
@@ -8411,10 +8411,10 @@
         <v>12</v>
       </c>
       <c r="CM22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CN22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CO22" t="n">
         <v>12</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="DA22" t="n">
         <v>0</v>
@@ -8468,13 +8468,13 @@
         <v>19</v>
       </c>
       <c r="DF22" t="n">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="DG22" t="n">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="DH22" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="DI22" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="DL22" t="n">
-        <v>6.4335</v>
+        <v>7.9724</v>
       </c>
     </row>
   </sheetData>
